--- a/data/winterPrecip.xlsx
+++ b/data/winterPrecip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\NNPrecip\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8836EE18-8D80-48C0-BBC9-4BC89D7B3053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2515BE-3E6B-48F6-988C-2B894421DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7B5CD0C5-65CD-45A4-9B8D-B65BD8E2F42B}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{7B5CD0C5-65CD-45A4-9B8D-B65BD8E2F42B}"/>
   </bookViews>
   <sheets>
     <sheet name="USGS_data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>351256111375801</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Amt_in</t>
-  </si>
-  <si>
-    <t>d18</t>
   </si>
   <si>
     <t>Pd2H</t>
@@ -123,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -174,7 +171,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,13 +492,13 @@
       <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -524,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,15 +550,15 @@
         <v>3.25</v>
       </c>
       <c r="H2">
-        <f>E2*$G2</f>
+        <f t="shared" ref="H2:H18" si="0">E2*$G2</f>
         <v>-256.75</v>
       </c>
       <c r="I2">
-        <f>F2*$G2</f>
+        <f t="shared" ref="I2:I18" si="1">F2*$G2</f>
         <v>-37.699999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,15 +581,15 @@
         <v>3.8125</v>
       </c>
       <c r="H3">
-        <f>E3*$G3</f>
+        <f t="shared" si="0"/>
         <v>-353.41874999999999</v>
       </c>
       <c r="I3">
-        <f>F3*$G3</f>
+        <f t="shared" si="1"/>
         <v>-47.122499999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,15 +612,15 @@
         <v>6.39</v>
       </c>
       <c r="H4">
-        <f>E4*$G4</f>
+        <f t="shared" si="0"/>
         <v>-530.37</v>
       </c>
       <c r="I4">
-        <f>F4*$G4</f>
+        <f t="shared" si="1"/>
         <v>-80.513999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,15 +643,15 @@
         <v>6.09375</v>
       </c>
       <c r="H5">
-        <f>E5*$G5</f>
+        <f t="shared" si="0"/>
         <v>-731.25</v>
       </c>
       <c r="I5">
-        <f>F5*$G5</f>
+        <f t="shared" si="1"/>
         <v>-101.15625000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,15 +674,15 @@
         <v>3.625</v>
       </c>
       <c r="H6">
-        <f>E6*$G6</f>
+        <f t="shared" si="0"/>
         <v>-264.625</v>
       </c>
       <c r="I6">
-        <f>F6*$G6</f>
+        <f t="shared" si="1"/>
         <v>-38.57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,15 +705,15 @@
         <v>3.625</v>
       </c>
       <c r="H7">
-        <f>E7*$G7</f>
+        <f t="shared" si="0"/>
         <v>-275.5</v>
       </c>
       <c r="I7">
-        <f>F7*$G7</f>
+        <f t="shared" si="1"/>
         <v>-40.599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,15 +736,15 @@
         <v>10.25</v>
       </c>
       <c r="H8">
-        <f>E8*$G8</f>
+        <f t="shared" si="0"/>
         <v>-1014.75</v>
       </c>
       <c r="I8">
-        <f>F8*$G8</f>
+        <f t="shared" si="1"/>
         <v>-141.45000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,16 +767,16 @@
         <v>6.5</v>
       </c>
       <c r="H9">
-        <f>E9*$G9</f>
+        <f t="shared" si="0"/>
         <v>-494</v>
       </c>
       <c r="I9">
-        <f>F9*$G9</f>
+        <f t="shared" si="1"/>
         <v>-72.8</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,15 +799,15 @@
         <v>4.38</v>
       </c>
       <c r="H10">
-        <f>E10*$G10</f>
+        <f t="shared" si="0"/>
         <v>-389.82</v>
       </c>
       <c r="I10">
-        <f>F10*$G10</f>
+        <f t="shared" si="1"/>
         <v>-55.625999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,15 +830,15 @@
         <v>3.83</v>
       </c>
       <c r="H11">
-        <f>E11*$G11</f>
+        <f t="shared" si="0"/>
         <v>-225.97</v>
       </c>
       <c r="I11">
-        <f>F11*$G11</f>
+        <f t="shared" si="1"/>
         <v>-37.150999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,15 +861,15 @@
         <v>4.26</v>
       </c>
       <c r="H12">
-        <f>E12*$G12</f>
+        <f t="shared" si="0"/>
         <v>-357.84</v>
       </c>
       <c r="I12">
-        <f>F12*$G12</f>
+        <f t="shared" si="1"/>
         <v>-50.693999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,15 +892,15 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H13">
-        <f>E13*$G13</f>
+        <f t="shared" si="0"/>
         <v>-344.45000000000005</v>
       </c>
       <c r="I13">
-        <f>F13*$G13</f>
+        <f t="shared" si="1"/>
         <v>-47.725000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,15 +923,15 @@
         <v>9.52</v>
       </c>
       <c r="H14">
-        <f>E14*$G14</f>
+        <f t="shared" si="0"/>
         <v>-618.79999999999995</v>
       </c>
       <c r="I14">
-        <f>F14*$G14</f>
+        <f t="shared" si="1"/>
         <v>-97.103999999999985</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,15 +954,15 @@
         <v>8.51</v>
       </c>
       <c r="H15">
-        <f>E15*$G15</f>
+        <f t="shared" si="0"/>
         <v>-859.51</v>
       </c>
       <c r="I15">
-        <f>F15*$G15</f>
+        <f t="shared" si="1"/>
         <v>-119.39529999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,15 +985,15 @@
         <v>3.29</v>
       </c>
       <c r="H16">
-        <f>E16*$G16</f>
+        <f t="shared" si="0"/>
         <v>-291.16500000000002</v>
       </c>
       <c r="I16">
-        <f>F16*$G16</f>
+        <f t="shared" si="1"/>
         <v>-40.401199999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,15 +1016,15 @@
         <v>5.13</v>
       </c>
       <c r="H17">
-        <f>E17*$G17</f>
+        <f t="shared" si="0"/>
         <v>-457.596</v>
       </c>
       <c r="I17">
-        <f>F17*$G17</f>
+        <f t="shared" si="1"/>
         <v>-64.945800000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,15 +1047,15 @@
         <v>12.41</v>
       </c>
       <c r="H18">
-        <f>E18*$G18</f>
+        <f t="shared" si="0"/>
         <v>-855.04900000000009</v>
       </c>
       <c r="I18">
-        <f>F18*$G18</f>
+        <f t="shared" si="1"/>
         <v>-126.9543</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
@@ -1074,28 +1071,28 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6">
         <f>SUM(USGS_data!H2:H3)/SUM(USGS_data!$G2:$G3)</f>
@@ -1106,9 +1103,9 @@
         <v>-12.010265486725663</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <f>SUM(USGS_data!H4:H5)/SUM(USGS_data!$G4:$G5)</f>
@@ -1119,9 +1116,9 @@
         <v>-14.552538299789727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
         <f>SUM(USGS_data!H6)/SUM(USGS_data!$G6)</f>
@@ -1132,9 +1129,9 @@
         <v>-10.64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(USGS_data!H7)/SUM(USGS_data!$G7)</f>
@@ -1145,9 +1142,9 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(USGS_data!H8)/SUM(USGS_data!$G8)</f>
@@ -1158,9 +1155,9 @@
         <v>-13.800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <f>SUM(USGS_data!H9)/SUM(USGS_data!$G9)</f>
@@ -1171,9 +1168,9 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6">
         <f>SUM(USGS_data!H10)/SUM(USGS_data!$G10)</f>
@@ -1184,9 +1181,9 @@
         <v>-12.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6">
         <f>AVERAGE(SUM(USGS_data!H11:H13)/SUM(USGS_data!$G11:$G13),USGS_data!E14)</f>
@@ -1197,9 +1194,9 @@
         <v>-10.63799019607843</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6">
         <f>SUM(USGS_data!H15)/SUM(USGS_data!$G15)</f>
@@ -1210,9 +1207,9 @@
         <v>-14.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
         <f>SUM(USGS_data!H18)/SUM(USGS_data!$G18)</f>
@@ -1223,9 +1220,9 @@
         <v>-10.23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>-90</v>
@@ -1234,9 +1231,9 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6">
         <v>-65</v>
@@ -1245,9 +1242,9 @@
         <v>-9.6999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <v>-81</v>
@@ -1256,9 +1253,9 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6">
         <v>-93</v>
@@ -1267,9 +1264,9 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6">
         <v>-75</v>
@@ -1278,7 +1275,7 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.75">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
